--- a/natmiOut/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H2">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I2">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J2">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N2">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O2">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P2">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q2">
-        <v>2.075333000488718</v>
+        <v>2.179671598137778</v>
       </c>
       <c r="R2">
-        <v>2.075333000488718</v>
+        <v>19.61704438324</v>
       </c>
       <c r="S2">
-        <v>0.01945600432232451</v>
+        <v>0.01580542245188179</v>
       </c>
       <c r="T2">
-        <v>0.01945600432232451</v>
+        <v>0.01580542245188179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H3">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I3">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J3">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N3">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P3">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q3">
-        <v>18.23681309412776</v>
+        <v>18.77538180409422</v>
       </c>
       <c r="R3">
-        <v>18.23681309412776</v>
+        <v>168.978436236848</v>
       </c>
       <c r="S3">
-        <v>0.1709679913060789</v>
+        <v>0.1361456658712336</v>
       </c>
       <c r="T3">
-        <v>0.1709679913060789</v>
+        <v>0.1361456658712336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H4">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I4">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J4">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N4">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O4">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P4">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q4">
-        <v>5.711589825810604</v>
+        <v>6.444975795786666</v>
       </c>
       <c r="R4">
-        <v>5.711589825810604</v>
+        <v>58.00478216208</v>
       </c>
       <c r="S4">
-        <v>0.05354548706744756</v>
+        <v>0.04673436366817417</v>
       </c>
       <c r="T4">
-        <v>0.05354548706744756</v>
+        <v>0.04673436366817418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.632867809199</v>
+        <v>1.675229333333333</v>
       </c>
       <c r="H5">
-        <v>1.632867809199</v>
+        <v>5.025688</v>
       </c>
       <c r="I5">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="J5">
-        <v>0.300983185051208</v>
+        <v>0.2721044738138681</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N5">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O5">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P5">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q5">
-        <v>6.08153740191898</v>
+        <v>10.12496547415467</v>
       </c>
       <c r="R5">
-        <v>6.08153740191898</v>
+        <v>91.124689267392</v>
       </c>
       <c r="S5">
-        <v>0.05701370235535704</v>
+        <v>0.07341902182257853</v>
       </c>
       <c r="T5">
-        <v>0.05701370235535704</v>
+        <v>0.07341902182257853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H6">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I6">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J6">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N6">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O6">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P6">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q6">
-        <v>2.899788681396577</v>
+        <v>3.166320039251111</v>
       </c>
       <c r="R6">
-        <v>2.899788681396577</v>
+        <v>28.49688035326</v>
       </c>
       <c r="S6">
-        <v>0.02718517997150028</v>
+        <v>0.02295989261913546</v>
       </c>
       <c r="T6">
-        <v>0.02718517997150028</v>
+        <v>0.02295989261913546</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H7">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I7">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J7">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N7">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P7">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q7">
-        <v>25.48164761156076</v>
+        <v>27.27423144921688</v>
       </c>
       <c r="R7">
-        <v>25.48164761156076</v>
+        <v>245.468083042952</v>
       </c>
       <c r="S7">
-        <v>0.2388874681575089</v>
+        <v>0.1977732565188126</v>
       </c>
       <c r="T7">
-        <v>0.2388874681575089</v>
+        <v>0.1977732565188127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H8">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I8">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J8">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N8">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O8">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P8">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q8">
-        <v>7.980600475087697</v>
+        <v>9.362353499546666</v>
       </c>
       <c r="R8">
-        <v>7.980600475087697</v>
+        <v>84.26118149592</v>
       </c>
       <c r="S8">
-        <v>0.07481719671083471</v>
+        <v>0.06788910418001205</v>
       </c>
       <c r="T8">
-        <v>0.07481719671083471</v>
+        <v>0.06788910418001207</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.28154787218102</v>
+        <v>2.433537333333333</v>
       </c>
       <c r="H9">
-        <v>2.28154787218102</v>
+        <v>7.300612</v>
       </c>
       <c r="I9">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="J9">
-        <v>0.42055305490572</v>
+        <v>0.3952750721451891</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N9">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O9">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P9">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q9">
-        <v>8.497515010565396</v>
+        <v>14.70812442797867</v>
       </c>
       <c r="R9">
-        <v>8.497515010565396</v>
+        <v>132.373119851808</v>
       </c>
       <c r="S9">
-        <v>0.07966321006587612</v>
+        <v>0.106652818827229</v>
       </c>
       <c r="T9">
-        <v>0.07966321006587612</v>
+        <v>0.106652818827229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.567267102381102</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H10">
-        <v>0.567267102381102</v>
+        <v>2.780482</v>
       </c>
       <c r="I10">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J10">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N10">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O10">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P10">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q10">
-        <v>0.7209819013093409</v>
+        <v>1.205912035234445</v>
       </c>
       <c r="R10">
-        <v>0.7209819013093409</v>
+        <v>10.85320831711</v>
       </c>
       <c r="S10">
-        <v>0.006759121059072917</v>
+        <v>0.00874441322856755</v>
       </c>
       <c r="T10">
-        <v>0.006759121059072917</v>
+        <v>0.00874441322856755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.567267102381102</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H11">
-        <v>0.567267102381102</v>
+        <v>2.780482</v>
       </c>
       <c r="I11">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J11">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N11">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O11">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P11">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q11">
-        <v>6.335567436807013</v>
+        <v>10.38755512666356</v>
       </c>
       <c r="R11">
-        <v>6.335567436807013</v>
+        <v>93.487996139972</v>
       </c>
       <c r="S11">
-        <v>0.05939520424233997</v>
+        <v>0.0753231345306313</v>
       </c>
       <c r="T11">
-        <v>0.05939520424233997</v>
+        <v>0.07532313453063132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.567267102381102</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H12">
-        <v>0.567267102381102</v>
+        <v>2.780482</v>
       </c>
       <c r="I12">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J12">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N12">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O12">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P12">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q12">
-        <v>1.984237175982016</v>
+        <v>3.565708653346667</v>
       </c>
       <c r="R12">
-        <v>1.984237175982016</v>
+        <v>32.09137788012</v>
       </c>
       <c r="S12">
-        <v>0.01860199161451774</v>
+        <v>0.02585597374146829</v>
       </c>
       <c r="T12">
-        <v>0.01860199161451774</v>
+        <v>0.02585597374146829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.567267102381102</v>
+        <v>0.9268273333333333</v>
       </c>
       <c r="H13">
-        <v>0.567267102381102</v>
+        <v>2.780482</v>
       </c>
       <c r="I13">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="J13">
-        <v>0.1045631852667785</v>
+        <v>0.1505428891644152</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N13">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O13">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P13">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q13">
-        <v>2.112758963446769</v>
+        <v>5.601677671098667</v>
       </c>
       <c r="R13">
-        <v>2.112758963446769</v>
+        <v>50.415099039888</v>
       </c>
       <c r="S13">
-        <v>0.01980686835084788</v>
+        <v>0.04061936766374809</v>
       </c>
       <c r="T13">
-        <v>0.01980686835084788</v>
+        <v>0.04061936766374809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.943430280017477</v>
+        <v>1.120972666666667</v>
       </c>
       <c r="H14">
-        <v>0.943430280017477</v>
+        <v>3.362918</v>
       </c>
       <c r="I14">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="J14">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.27097428756757</v>
+        <v>1.301118333333333</v>
       </c>
       <c r="N14">
-        <v>1.27097428756757</v>
+        <v>3.903355</v>
       </c>
       <c r="O14">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="P14">
-        <v>0.06464149922200585</v>
+        <v>0.05808586029604726</v>
       </c>
       <c r="Q14">
-        <v>1.199075628014886</v>
+        <v>1.458518087765555</v>
       </c>
       <c r="R14">
-        <v>1.199075628014886</v>
+        <v>13.12666278989</v>
       </c>
       <c r="S14">
-        <v>0.01124119386910815</v>
+        <v>0.01057613199646246</v>
       </c>
       <c r="T14">
-        <v>0.01124119386910815</v>
+        <v>0.01057613199646246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.943430280017477</v>
+        <v>1.120972666666667</v>
       </c>
       <c r="H15">
-        <v>0.943430280017477</v>
+        <v>3.362918</v>
       </c>
       <c r="I15">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="J15">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.1685789819531</v>
+        <v>11.20764866666667</v>
       </c>
       <c r="N15">
-        <v>11.1685789819531</v>
+        <v>33.622946</v>
       </c>
       <c r="O15">
-        <v>0.5680317034222065</v>
+        <v>0.5003433569576788</v>
       </c>
       <c r="P15">
-        <v>0.5680317034222065</v>
+        <v>0.500343356957679</v>
       </c>
       <c r="Q15">
-        <v>10.53677559634132</v>
+        <v>12.56346781293644</v>
       </c>
       <c r="R15">
-        <v>10.53677559634132</v>
+        <v>113.071210316428</v>
       </c>
       <c r="S15">
-        <v>0.0987810397162788</v>
+        <v>0.09110130003700131</v>
       </c>
       <c r="T15">
-        <v>0.0987810397162788</v>
+        <v>0.09110130003700136</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.943430280017477</v>
+        <v>1.120972666666667</v>
       </c>
       <c r="H16">
-        <v>0.943430280017477</v>
+        <v>3.362918</v>
       </c>
       <c r="I16">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="J16">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.49788868004717</v>
+        <v>3.84722</v>
       </c>
       <c r="N16">
-        <v>3.49788868004717</v>
+        <v>11.54166</v>
       </c>
       <c r="O16">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="P16">
-        <v>0.1779019218576531</v>
+        <v>0.1717515445929148</v>
       </c>
       <c r="Q16">
-        <v>3.300014096886864</v>
+        <v>4.312628462653334</v>
       </c>
       <c r="R16">
-        <v>3.300014096886864</v>
+        <v>38.81365616388</v>
       </c>
       <c r="S16">
-        <v>0.03093724646485313</v>
+        <v>0.03127210300326024</v>
       </c>
       <c r="T16">
-        <v>0.03093724646485313</v>
+        <v>0.03127210300326025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.943430280017477</v>
+        <v>1.120972666666667</v>
       </c>
       <c r="H17">
-        <v>0.943430280017477</v>
+        <v>3.362918</v>
       </c>
       <c r="I17">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="J17">
-        <v>0.1739005747762935</v>
+        <v>0.1820775648765275</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.72445176986021</v>
+        <v>6.043928</v>
       </c>
       <c r="N17">
-        <v>3.72445176986021</v>
+        <v>18.131784</v>
       </c>
       <c r="O17">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="P17">
-        <v>0.1894248754981344</v>
+        <v>0.2698192381533591</v>
       </c>
       <c r="Q17">
-        <v>3.513760576150806</v>
+        <v>6.775078087301333</v>
       </c>
       <c r="R17">
-        <v>3.513760576150806</v>
+        <v>60.975702785712</v>
       </c>
       <c r="S17">
-        <v>0.03294109472605342</v>
+        <v>0.04912802983980345</v>
       </c>
       <c r="T17">
-        <v>0.03294109472605342</v>
+        <v>0.04912802983980347</v>
       </c>
     </row>
   </sheetData>
